--- a/Location Details/Visionary Way, Fishers, IN 46038_conference.xlsx
+++ b/Location Details/Visionary Way, Fishers, IN 46038_conference.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>4.6</v>
       </c>
       <c r="E9" t="n">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10">
@@ -646,7 +646,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>4.5</v>
       </c>
       <c r="E22" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23">
@@ -961,7 +961,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>4.1</v>
       </c>
       <c r="E49" t="n">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="50">
@@ -1528,7 +1528,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
